--- a/2023_outputs/charts_and_tables/tables/tbl_2023_rate_by_subcat_priority.xlsx
+++ b/2023_outputs/charts_and_tables/tables/tbl_2023_rate_by_subcat_priority.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy.kingham\Work\Analytical Projects\Projects\Statement_redesign\Annual_Report\AnnRpt-FMA-OLE-Chapter\2023_outputs\charts_and_tables\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9D50B4BB-3500-43F6-99FA-D00643AA709F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46469B-7B3E-4654-98C9-9D5AA8284F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_2023_rate_by_subcat_priorit" sheetId="1" r:id="rId1"/>
     <sheet name="priority_rate_tbl" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>DISRUPTIVE/BOTHERSOME BEHAVIOR - CONFLICT RESOLVED</t>
   </si>
@@ -65,12 +65,6 @@
     <t>OBSERVER SAFETY AND WORK ENVIRONMENT</t>
   </si>
   <si>
-    <t>2023 thru 7/19</t>
-  </si>
-  <si>
-    <t>2023 after 7/19</t>
-  </si>
-  <si>
     <t>Vessel/Plant assignments</t>
   </si>
   <si>
@@ -83,37 +77,69 @@
     <t>Deployed Days</t>
   </si>
   <si>
-    <t>Occurrences per Vessel/Plant Assignment</t>
-  </si>
-  <si>
     <t>Occurrences per 1000 Deployed Days</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>OLE Category</t>
-  </si>
-  <si>
     <t>Statement Type</t>
   </si>
   <si>
-    <t>Occurrence Rate</t>
-  </si>
-  <si>
-    <t>Per 1000 Deployed Days</t>
-  </si>
-  <si>
-    <t>Per Vessel- Plant Assignment</t>
+    <t>Occurrences per 100 Vessel/Plant Assignments</t>
+  </si>
+  <si>
+    <t>CONFIDENTIAL_FLAG</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Occurrences Per 100 Vessel/ Plant Assignments</t>
+  </si>
+  <si>
+    <t>2023 old system (thru 7/19)</t>
+  </si>
+  <si>
+    <t>2023 new system (after 7/19)</t>
+  </si>
+  <si>
+    <t>MARINE CASUALTY</t>
+  </si>
+  <si>
+    <t>Sexual Harrassment</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Safety-NMFS</t>
+  </si>
+  <si>
+    <t>Marine Casualty</t>
+  </si>
+  <si>
+    <t>COAST GUARD</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>2023 Old system (thru 7/19)</t>
+  </si>
+  <si>
+    <t>2023 New system (after 7/19)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -432,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -577,9 +603,87 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -591,9 +695,75 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -604,52 +774,11 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -658,43 +787,66 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -704,7 +856,44 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -717,164 +906,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -885,7 +931,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -898,7 +944,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -948,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,100 +1009,132 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1103,7 +1181,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1412,11 +1501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,82 +1513,89 @@
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="55.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7">
+        <v>32474</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1173</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4.9445865302642797</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1.78604421999138</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>30</v>
-      </c>
-      <c r="E2" s="35">
-        <v>58</v>
-      </c>
-      <c r="F2" s="9">
-        <v>32474</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1173</v>
-      </c>
-      <c r="H2" s="15">
-        <v>4.9445865302642798E-2</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1.78604421999138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>17</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="16">
         <v>38</v>
       </c>
       <c r="F3" s="5">
@@ -1508,23 +1604,26 @@
       <c r="G3" s="5">
         <v>1173</v>
       </c>
-      <c r="H3" s="14">
-        <v>3.2395566922421098E-2</v>
+      <c r="H3" s="9">
+        <v>3.2395566922421097</v>
       </c>
       <c r="I3" s="6">
         <v>1.17016690275297</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="16">
         <v>17</v>
       </c>
       <c r="F4" s="5">
@@ -1533,155 +1632,167 @@
       <c r="G4" s="5">
         <v>1173</v>
       </c>
-      <c r="H4" s="14">
-        <v>1.4492753623188401E-2</v>
+      <c r="H4" s="9">
+        <v>1.4492753623188401</v>
       </c>
       <c r="I4" s="6">
         <v>0.52349571965264496</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="11">
         <v>41</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="17">
         <v>299</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="11">
         <v>32474</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="11">
         <v>1173</v>
       </c>
-      <c r="H5" s="25">
-        <v>0.25490196078431399</v>
-      </c>
-      <c r="I5" s="32">
+      <c r="H5" s="12">
+        <v>25.490196078431399</v>
+      </c>
+      <c r="I5" s="14">
         <v>9.2073658927141704</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="21" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="23">
         <v>21</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="24">
         <v>362</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="23">
         <v>32474</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="23">
         <v>1173</v>
       </c>
-      <c r="H6" s="14">
-        <v>0.30861040068201201</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="25">
+        <v>30.861040068201202</v>
+      </c>
+      <c r="I6" s="27">
         <v>11.1473794420152</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="19" t="s">
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>76</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="16">
         <v>145</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>32474</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>1173</v>
       </c>
-      <c r="H7" s="16">
-        <v>0.123614663256607</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="9">
+        <v>12.3614663256607</v>
+      </c>
+      <c r="I7" s="6">
         <v>4.4651105499784398</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="61">
+        <v>17.988064791133802</v>
+      </c>
+      <c r="I8" s="60">
+        <v>6.4975056968651801</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="7">
         <v>15</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E9" s="15">
         <v>122</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="7">
         <v>16224</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="7">
         <v>550</v>
       </c>
-      <c r="H8" s="15">
-        <v>0.221818181818182</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H9" s="10">
+        <v>22.181818181818201</v>
+      </c>
+      <c r="I9" s="8">
         <v>7.5197238658777099</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E10" s="16">
         <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>16224</v>
-      </c>
-      <c r="G9" s="5">
-        <v>550</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1.8181818181818198E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.61637080867850103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="36">
-        <v>1</v>
       </c>
       <c r="F10" s="5">
         <v>16224</v>
@@ -1689,180 +1800,195 @@
       <c r="G10" s="5">
         <v>550</v>
       </c>
-      <c r="H10" s="14">
-        <v>1.8181818181818199E-3</v>
+      <c r="H10" s="9">
+        <v>1.8181818181818199</v>
       </c>
       <c r="I10" s="6">
+        <v>0.61637080867850103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>16224</v>
+      </c>
+      <c r="G11" s="5">
+        <v>550</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="I11" s="6">
         <v>6.1637080867850101E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D12" s="11">
         <v>14</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E12" s="17">
         <v>42</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="11">
         <v>16224</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G12" s="11">
         <v>550</v>
       </c>
-      <c r="H11" s="25">
-        <v>7.6363636363636397E-2</v>
-      </c>
-      <c r="I11" s="32">
+      <c r="H12" s="12">
+        <v>7.6363636363636394</v>
+      </c>
+      <c r="I12" s="14">
         <v>2.5887573964496999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="21" t="s">
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <v>10</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E13" s="16">
         <v>38</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <v>16224</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="5">
         <v>550</v>
       </c>
-      <c r="H12" s="14">
-        <v>6.9090909090909106E-2</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H13" s="9">
+        <v>6.9090909090909109</v>
+      </c>
+      <c r="I13" s="6">
         <v>2.3422090729782998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="19" t="s">
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="5">
         <v>20</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E14" s="16">
         <v>93</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="5">
         <v>16224</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="5">
         <v>550</v>
       </c>
-      <c r="H13" s="16">
-        <v>0.16909090909090899</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H14" s="9">
+        <v>16.909090909090899</v>
+      </c>
+      <c r="I14" s="6">
         <v>5.7322485207100602</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="61">
+        <v>20.545454545454501</v>
+      </c>
+      <c r="I15" s="60">
+        <v>6.9649901380670602</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E16" s="15">
         <v>9</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F16" s="7">
         <v>16537</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G16" s="7">
         <v>605</v>
       </c>
-      <c r="H14" s="15">
-        <v>1.48760330578512E-2</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="H16" s="10">
+        <v>1.4876033057851199</v>
+      </c>
+      <c r="I16" s="8">
         <v>0.54423414162181805</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="17" t="s">
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E17" s="16">
         <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>16537</v>
-      </c>
-      <c r="G15" s="5">
-        <v>605</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.6528925619834699E-3</v>
-      </c>
-      <c r="I15" s="6">
-        <v>6.0470460180202003E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>11</v>
-      </c>
-      <c r="E16" s="36">
-        <v>86</v>
-      </c>
-      <c r="F16" s="5">
-        <v>16537</v>
-      </c>
-      <c r="G16" s="5">
-        <v>605</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.14214876033057899</v>
-      </c>
-      <c r="I16" s="6">
-        <v>5.2004595754973701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="36">
-        <v>12</v>
       </c>
       <c r="F17" s="5">
         <v>16537</v>
@@ -1870,24 +1996,27 @@
       <c r="G17" s="5">
         <v>605</v>
       </c>
-      <c r="H17" s="14">
-        <v>1.9834710743801699E-2</v>
+      <c r="H17" s="9">
+        <v>0.165289256198347</v>
       </c>
       <c r="I17" s="6">
-        <v>0.72564552216242395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="17" t="s">
-        <v>9</v>
+        <v>6.0470460180202003E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="5">
-        <v>8</v>
-      </c>
-      <c r="E18" s="36">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="16">
+        <v>86</v>
       </c>
       <c r="F18" s="5">
         <v>16537</v>
@@ -1895,24 +2024,27 @@
       <c r="G18" s="5">
         <v>605</v>
       </c>
-      <c r="H18" s="14">
-        <v>9.7520661157024804E-2</v>
+      <c r="H18" s="9">
+        <v>14.2148760330579</v>
       </c>
       <c r="I18" s="6">
-        <v>3.5677571506319201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="17" t="s">
-        <v>1</v>
+        <v>5.2004595754973701</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="5">
-        <v>11</v>
-      </c>
-      <c r="E19" s="36">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>12</v>
       </c>
       <c r="F19" s="5">
         <v>16537</v>
@@ -1920,24 +2052,27 @@
       <c r="G19" s="5">
         <v>605</v>
       </c>
-      <c r="H19" s="14">
-        <v>0.109090909090909</v>
+      <c r="H19" s="9">
+        <v>1.98347107438017</v>
       </c>
       <c r="I19" s="6">
-        <v>3.9910503718933299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17" t="s">
-        <v>10</v>
+        <v>0.72564552216242395</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="36">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="16">
+        <v>59</v>
       </c>
       <c r="F20" s="5">
         <v>16537</v>
@@ -1945,24 +2080,27 @@
       <c r="G20" s="5">
         <v>605</v>
       </c>
-      <c r="H20" s="14">
-        <v>4.9586776859504101E-3</v>
+      <c r="H20" s="9">
+        <v>9.7520661157024797</v>
       </c>
       <c r="I20" s="6">
-        <v>0.18141138054060599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17" t="s">
-        <v>5</v>
+        <v>3.5677571506319201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="31" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>26</v>
-      </c>
-      <c r="E21" s="36">
-        <v>382</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="16">
+        <v>66</v>
       </c>
       <c r="F21" s="5">
         <v>16537</v>
@@ -1970,171 +2108,230 @@
       <c r="G21" s="5">
         <v>605</v>
       </c>
-      <c r="H21" s="14">
-        <v>0.63140495867768598</v>
+      <c r="H21" s="9">
+        <v>10.909090909090899</v>
       </c>
       <c r="I21" s="6">
+        <v>3.9910503718933299</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>16537</v>
+      </c>
+      <c r="G22" s="5">
+        <v>605</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.495867768595041</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.18141138054060599</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>26</v>
+      </c>
+      <c r="E23" s="16">
+        <v>382</v>
+      </c>
+      <c r="F23" s="5">
+        <v>16537</v>
+      </c>
+      <c r="G23" s="5">
+        <v>605</v>
+      </c>
+      <c r="H23" s="9">
+        <v>63.1404958677686</v>
+      </c>
+      <c r="I23" s="6">
         <v>23.099715788837202</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="19" t="s">
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D24" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E24" s="16">
         <v>39</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F24" s="5">
         <v>16537</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G24" s="5">
         <v>605</v>
       </c>
-      <c r="H22" s="16">
-        <v>6.4462809917355396E-2</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H24" s="9">
+        <v>6.4462809917355397</v>
+      </c>
+      <c r="I24" s="6">
         <v>2.3583479470278799</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
+      <c r="B25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="61">
+        <v>15.867768595041301</v>
+      </c>
+      <c r="I25" s="60">
+        <v>5.8051641772993898</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B16:B24"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
+  <conditionalFormatting sqref="K2:K25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="34">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="20">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39">
-        <v>3.2395566922421098E-2</v>
-      </c>
-      <c r="C4" s="41">
-        <v>1.17016690275297</v>
-      </c>
-      <c r="D4" s="39">
-        <v>1.8181818181818198E-2</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0.61637080867850103</v>
-      </c>
-      <c r="F4" s="39">
-        <v>1.48760330578512E-2</v>
-      </c>
-      <c r="G4" s="41">
-        <v>3.9910503718933299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="39">
-        <v>1.4492753623188401E-2</v>
-      </c>
-      <c r="C5" s="41">
-        <v>0.52349571965264496</v>
-      </c>
-      <c r="D5" s="39">
-        <v>1.8181818181818199E-3</v>
-      </c>
-      <c r="E5" s="41">
-        <v>6.1637080867850101E-2</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.109090909090909</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.54423414162181805</v>
-      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="46">
+        <v>3.2395566922421097</v>
+      </c>
+      <c r="C3" s="47">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1.4876033057851199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1.4492753623188401</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="D4" s="49">
+        <v>10.909090909090899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
